--- a/CBS/ExampleSchedule.xlsx
+++ b/CBS/ExampleSchedule.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\CBS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="160" windowWidth="35820" windowHeight="18620" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="165" windowWidth="35820" windowHeight="18615" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>Participant 1</t>
   </si>
@@ -88,13 +94,19 @@
   </si>
   <si>
     <t>consent/MMSE</t>
+  </si>
+  <si>
+    <t>all 5</t>
+  </si>
+  <si>
+    <t>MoCAs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,8 +162,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,13 +212,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -213,7 +274,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,6 +294,17 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -245,6 +317,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -572,32 +652,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="12" width="13.1640625" customWidth="1"/>
-    <col min="13" max="14" width="13.6640625" customWidth="1"/>
+    <col min="10" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="14" width="13.625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +722,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.375</v>
       </c>
@@ -653,7 +733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -670,7 +750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -686,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.4375</v>
       </c>
@@ -698,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -710,7 +790,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -726,7 +806,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.5</v>
       </c>
@@ -745,7 +825,7 @@
       </c>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -761,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -773,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6.25E-2</v>
       </c>
@@ -785,7 +865,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -801,7 +881,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -818,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.125</v>
       </c>
@@ -835,7 +915,7 @@
       </c>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -848,7 +928,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -862,7 +942,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.1875</v>
       </c>
@@ -874,7 +954,7 @@
       </c>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -885,7 +965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -896,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.25</v>
       </c>
@@ -907,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -918,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -926,27 +1006,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>20</v>
       </c>
@@ -960,4 +1040,443 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="26">
+        <v>38384</v>
+      </c>
+      <c r="C2" s="26">
+        <v>38749</v>
+      </c>
+      <c r="D2" s="26">
+        <v>39114</v>
+      </c>
+      <c r="E2" s="26">
+        <v>39479</v>
+      </c>
+      <c r="F2" s="26">
+        <v>39845</v>
+      </c>
+      <c r="G2" s="26">
+        <v>40210</v>
+      </c>
+      <c r="H2" s="26">
+        <v>40575</v>
+      </c>
+      <c r="I2" s="26">
+        <v>40940</v>
+      </c>
+      <c r="J2" s="26">
+        <v>41306</v>
+      </c>
+      <c r="K2" s="26">
+        <v>41671</v>
+      </c>
+      <c r="L2" s="26">
+        <v>42036</v>
+      </c>
+      <c r="M2" s="26">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>